--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_141.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_141.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d607413-Reviews-Courtyard_by_Marriott_Anaheim_Resort_Convention_Center-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>687</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-Anaheim-ResortConvention-Center.h1464333.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_141.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_141.xlsx
@@ -10424,7 +10424,7 @@
         <v>53987</v>
       </c>
       <c r="B2" t="n">
-        <v>131875</v>
+        <v>162656</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -10489,7 +10489,7 @@
         <v>53987</v>
       </c>
       <c r="B3" t="n">
-        <v>131876</v>
+        <v>162657</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
@@ -10627,7 +10627,7 @@
         <v>53987</v>
       </c>
       <c r="B5" t="n">
-        <v>131877</v>
+        <v>162658</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -10698,7 +10698,7 @@
         <v>53987</v>
       </c>
       <c r="B6" t="n">
-        <v>131878</v>
+        <v>162659</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
@@ -10763,7 +10763,7 @@
         <v>53987</v>
       </c>
       <c r="B7" t="n">
-        <v>131879</v>
+        <v>162660</v>
       </c>
       <c r="C7" t="s">
         <v>88</v>
@@ -10893,7 +10893,7 @@
         <v>53987</v>
       </c>
       <c r="B9" t="n">
-        <v>131880</v>
+        <v>162661</v>
       </c>
       <c r="C9" t="s">
         <v>105</v>
@@ -10958,7 +10958,7 @@
         <v>53987</v>
       </c>
       <c r="B10" t="n">
-        <v>131881</v>
+        <v>162662</v>
       </c>
       <c r="C10" t="s">
         <v>113</v>
@@ -11023,7 +11023,7 @@
         <v>53987</v>
       </c>
       <c r="B11" t="n">
-        <v>131882</v>
+        <v>162663</v>
       </c>
       <c r="C11" t="s">
         <v>121</v>
@@ -11092,7 +11092,7 @@
         <v>53987</v>
       </c>
       <c r="B12" t="n">
-        <v>131883</v>
+        <v>162664</v>
       </c>
       <c r="C12" t="s">
         <v>132</v>
@@ -11161,7 +11161,7 @@
         <v>53987</v>
       </c>
       <c r="B13" t="n">
-        <v>131884</v>
+        <v>162665</v>
       </c>
       <c r="C13" t="s">
         <v>139</v>
@@ -11232,7 +11232,7 @@
         <v>53987</v>
       </c>
       <c r="B14" t="n">
-        <v>131885</v>
+        <v>162666</v>
       </c>
       <c r="C14" t="s">
         <v>146</v>
@@ -11301,7 +11301,7 @@
         <v>53987</v>
       </c>
       <c r="B15" t="n">
-        <v>131886</v>
+        <v>162667</v>
       </c>
       <c r="C15" t="s">
         <v>155</v>
@@ -11366,7 +11366,7 @@
         <v>53987</v>
       </c>
       <c r="B16" t="n">
-        <v>131887</v>
+        <v>162668</v>
       </c>
       <c r="C16" t="s">
         <v>162</v>
@@ -11431,7 +11431,7 @@
         <v>53987</v>
       </c>
       <c r="B17" t="n">
-        <v>131888</v>
+        <v>162669</v>
       </c>
       <c r="C17" t="s">
         <v>171</v>
@@ -11697,7 +11697,7 @@
         <v>53987</v>
       </c>
       <c r="B21" t="n">
-        <v>131889</v>
+        <v>162670</v>
       </c>
       <c r="C21" t="s">
         <v>204</v>
@@ -11762,7 +11762,7 @@
         <v>53987</v>
       </c>
       <c r="B22" t="n">
-        <v>131890</v>
+        <v>162671</v>
       </c>
       <c r="C22" t="s">
         <v>211</v>
@@ -11892,7 +11892,7 @@
         <v>53987</v>
       </c>
       <c r="B24" t="n">
-        <v>131891</v>
+        <v>162672</v>
       </c>
       <c r="C24" t="s">
         <v>228</v>
@@ -11961,7 +11961,7 @@
         <v>53987</v>
       </c>
       <c r="B25" t="n">
-        <v>131892</v>
+        <v>162673</v>
       </c>
       <c r="C25" t="s">
         <v>237</v>
@@ -12026,7 +12026,7 @@
         <v>53987</v>
       </c>
       <c r="B26" t="n">
-        <v>131893</v>
+        <v>162674</v>
       </c>
       <c r="C26" t="s">
         <v>245</v>
@@ -12160,7 +12160,7 @@
         <v>53987</v>
       </c>
       <c r="B28" t="n">
-        <v>131894</v>
+        <v>162675</v>
       </c>
       <c r="C28" t="s">
         <v>261</v>
@@ -12231,7 +12231,7 @@
         <v>53987</v>
       </c>
       <c r="B29" t="n">
-        <v>131895</v>
+        <v>162676</v>
       </c>
       <c r="C29" t="s">
         <v>268</v>
@@ -12422,7 +12422,7 @@
         <v>53987</v>
       </c>
       <c r="B32" t="n">
-        <v>131896</v>
+        <v>162677</v>
       </c>
       <c r="C32" t="s">
         <v>290</v>
@@ -12556,7 +12556,7 @@
         <v>53987</v>
       </c>
       <c r="B34" t="n">
-        <v>131897</v>
+        <v>162678</v>
       </c>
       <c r="C34" t="s">
         <v>309</v>
@@ -12623,7 +12623,7 @@
         <v>53987</v>
       </c>
       <c r="B35" t="n">
-        <v>131898</v>
+        <v>162679</v>
       </c>
       <c r="C35" t="s">
         <v>315</v>
@@ -12901,7 +12901,7 @@
         <v>53987</v>
       </c>
       <c r="B39" t="n">
-        <v>131899</v>
+        <v>162680</v>
       </c>
       <c r="C39" t="s">
         <v>347</v>
@@ -13023,7 +13023,7 @@
         <v>53987</v>
       </c>
       <c r="B41" t="n">
-        <v>131900</v>
+        <v>162681</v>
       </c>
       <c r="C41" t="s">
         <v>363</v>
@@ -13092,7 +13092,7 @@
         <v>53987</v>
       </c>
       <c r="B42" t="n">
-        <v>131901</v>
+        <v>162682</v>
       </c>
       <c r="C42" t="s">
         <v>373</v>
@@ -13230,7 +13230,7 @@
         <v>53987</v>
       </c>
       <c r="B44" t="n">
-        <v>131902</v>
+        <v>162683</v>
       </c>
       <c r="C44" t="s">
         <v>389</v>
@@ -13496,7 +13496,7 @@
         <v>53987</v>
       </c>
       <c r="B48" t="n">
-        <v>131903</v>
+        <v>162684</v>
       </c>
       <c r="C48" t="s">
         <v>426</v>
@@ -13626,7 +13626,7 @@
         <v>53987</v>
       </c>
       <c r="B50" t="n">
-        <v>131904</v>
+        <v>162685</v>
       </c>
       <c r="C50" t="s">
         <v>445</v>
@@ -13687,7 +13687,7 @@
         <v>53987</v>
       </c>
       <c r="B51" t="n">
-        <v>131905</v>
+        <v>162686</v>
       </c>
       <c r="C51" t="s">
         <v>454</v>
@@ -13821,7 +13821,7 @@
         <v>53987</v>
       </c>
       <c r="B53" t="n">
-        <v>131906</v>
+        <v>162687</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
@@ -13888,7 +13888,7 @@
         <v>53987</v>
       </c>
       <c r="B54" t="n">
-        <v>131907</v>
+        <v>147161</v>
       </c>
       <c r="C54" t="s">
         <v>477</v>
@@ -13945,7 +13945,7 @@
         <v>53987</v>
       </c>
       <c r="B55" t="n">
-        <v>131908</v>
+        <v>162688</v>
       </c>
       <c r="C55" t="s">
         <v>484</v>
@@ -14010,7 +14010,7 @@
         <v>53987</v>
       </c>
       <c r="B56" t="n">
-        <v>131909</v>
+        <v>162689</v>
       </c>
       <c r="C56" t="s">
         <v>491</v>
@@ -14075,7 +14075,7 @@
         <v>53987</v>
       </c>
       <c r="B57" t="n">
-        <v>131910</v>
+        <v>162690</v>
       </c>
       <c r="C57" t="s">
         <v>497</v>
@@ -14142,7 +14142,7 @@
         <v>53987</v>
       </c>
       <c r="B58" t="n">
-        <v>131911</v>
+        <v>162691</v>
       </c>
       <c r="C58" t="s">
         <v>504</v>
@@ -14209,7 +14209,7 @@
         <v>53987</v>
       </c>
       <c r="B59" t="n">
-        <v>131912</v>
+        <v>162692</v>
       </c>
       <c r="C59" t="s">
         <v>511</v>
@@ -14270,7 +14270,7 @@
         <v>53987</v>
       </c>
       <c r="B60" t="n">
-        <v>131913</v>
+        <v>162693</v>
       </c>
       <c r="C60" t="s">
         <v>517</v>
@@ -14337,7 +14337,7 @@
         <v>53987</v>
       </c>
       <c r="B61" t="n">
-        <v>131914</v>
+        <v>162694</v>
       </c>
       <c r="C61" t="s">
         <v>525</v>
@@ -14402,7 +14402,7 @@
         <v>53987</v>
       </c>
       <c r="B62" t="n">
-        <v>131915</v>
+        <v>162695</v>
       </c>
       <c r="C62" t="s">
         <v>532</v>
@@ -14654,7 +14654,7 @@
         <v>53987</v>
       </c>
       <c r="B66" t="n">
-        <v>131916</v>
+        <v>162696</v>
       </c>
       <c r="C66" t="s">
         <v>559</v>
@@ -14721,7 +14721,7 @@
         <v>53987</v>
       </c>
       <c r="B67" t="n">
-        <v>131917</v>
+        <v>162697</v>
       </c>
       <c r="C67" t="s">
         <v>566</v>
@@ -14786,7 +14786,7 @@
         <v>53987</v>
       </c>
       <c r="B68" t="n">
-        <v>131918</v>
+        <v>162698</v>
       </c>
       <c r="C68" t="s">
         <v>574</v>
@@ -14851,7 +14851,7 @@
         <v>53987</v>
       </c>
       <c r="B69" t="n">
-        <v>131919</v>
+        <v>162699</v>
       </c>
       <c r="C69" t="s">
         <v>580</v>
@@ -14922,7 +14922,7 @@
         <v>53987</v>
       </c>
       <c r="B70" t="n">
-        <v>131920</v>
+        <v>162700</v>
       </c>
       <c r="C70" t="s">
         <v>589</v>
@@ -14991,7 +14991,7 @@
         <v>53987</v>
       </c>
       <c r="B71" t="n">
-        <v>131921</v>
+        <v>162701</v>
       </c>
       <c r="C71" t="s">
         <v>596</v>
@@ -15190,7 +15190,7 @@
         <v>53987</v>
       </c>
       <c r="B74" t="n">
-        <v>131922</v>
+        <v>162702</v>
       </c>
       <c r="C74" t="s">
         <v>618</v>
@@ -15261,7 +15261,7 @@
         <v>53987</v>
       </c>
       <c r="B75" t="n">
-        <v>131923</v>
+        <v>162703</v>
       </c>
       <c r="C75" t="s">
         <v>628</v>
@@ -15322,7 +15322,7 @@
         <v>53987</v>
       </c>
       <c r="B76" t="n">
-        <v>131924</v>
+        <v>162704</v>
       </c>
       <c r="C76" t="s">
         <v>637</v>
@@ -15393,7 +15393,7 @@
         <v>53987</v>
       </c>
       <c r="B77" t="n">
-        <v>131925</v>
+        <v>162705</v>
       </c>
       <c r="C77" t="s">
         <v>644</v>
@@ -15529,7 +15529,7 @@
         <v>53987</v>
       </c>
       <c r="B79" t="n">
-        <v>131926</v>
+        <v>162706</v>
       </c>
       <c r="C79" t="s">
         <v>663</v>
@@ -15598,7 +15598,7 @@
         <v>53987</v>
       </c>
       <c r="B80" t="n">
-        <v>131927</v>
+        <v>162707</v>
       </c>
       <c r="C80" t="s">
         <v>669</v>
@@ -15669,7 +15669,7 @@
         <v>53987</v>
       </c>
       <c r="B81" t="n">
-        <v>131928</v>
+        <v>162708</v>
       </c>
       <c r="C81" t="s">
         <v>679</v>
@@ -15738,7 +15738,7 @@
         <v>53987</v>
       </c>
       <c r="B82" t="n">
-        <v>131929</v>
+        <v>162709</v>
       </c>
       <c r="C82" t="s">
         <v>688</v>
@@ -15807,7 +15807,7 @@
         <v>53987</v>
       </c>
       <c r="B83" t="n">
-        <v>131930</v>
+        <v>137753</v>
       </c>
       <c r="C83" t="s">
         <v>698</v>
@@ -15872,7 +15872,7 @@
         <v>53987</v>
       </c>
       <c r="B84" t="n">
-        <v>131931</v>
+        <v>162710</v>
       </c>
       <c r="C84" t="s">
         <v>707</v>
@@ -15943,7 +15943,7 @@
         <v>53987</v>
       </c>
       <c r="B85" t="n">
-        <v>131932</v>
+        <v>162711</v>
       </c>
       <c r="C85" t="s">
         <v>716</v>
@@ -16014,7 +16014,7 @@
         <v>53987</v>
       </c>
       <c r="B86" t="n">
-        <v>131933</v>
+        <v>162712</v>
       </c>
       <c r="C86" t="s">
         <v>725</v>
@@ -16083,7 +16083,7 @@
         <v>53987</v>
       </c>
       <c r="B87" t="n">
-        <v>131934</v>
+        <v>162713</v>
       </c>
       <c r="C87" t="s">
         <v>735</v>
@@ -16152,7 +16152,7 @@
         <v>53987</v>
       </c>
       <c r="B88" t="n">
-        <v>131935</v>
+        <v>162714</v>
       </c>
       <c r="C88" t="s">
         <v>743</v>
@@ -16217,7 +16217,7 @@
         <v>53987</v>
       </c>
       <c r="B89" t="n">
-        <v>131936</v>
+        <v>162715</v>
       </c>
       <c r="C89" t="s">
         <v>752</v>
@@ -16359,7 +16359,7 @@
         <v>53987</v>
       </c>
       <c r="B91" t="n">
-        <v>131937</v>
+        <v>162716</v>
       </c>
       <c r="C91" t="s">
         <v>767</v>
@@ -16430,7 +16430,7 @@
         <v>53987</v>
       </c>
       <c r="B92" t="n">
-        <v>131938</v>
+        <v>162717</v>
       </c>
       <c r="C92" t="s">
         <v>775</v>
@@ -16560,7 +16560,7 @@
         <v>53987</v>
       </c>
       <c r="B94" t="n">
-        <v>131939</v>
+        <v>162718</v>
       </c>
       <c r="C94" t="s">
         <v>787</v>
@@ -16627,7 +16627,7 @@
         <v>53987</v>
       </c>
       <c r="B95" t="n">
-        <v>131940</v>
+        <v>162719</v>
       </c>
       <c r="C95" t="s">
         <v>793</v>
@@ -16698,7 +16698,7 @@
         <v>53987</v>
       </c>
       <c r="B96" t="n">
-        <v>131941</v>
+        <v>162720</v>
       </c>
       <c r="C96" t="s">
         <v>802</v>
@@ -16838,7 +16838,7 @@
         <v>53987</v>
       </c>
       <c r="B98" t="n">
-        <v>131942</v>
+        <v>162721</v>
       </c>
       <c r="C98" t="s">
         <v>819</v>
@@ -16913,7 +16913,7 @@
         <v>53987</v>
       </c>
       <c r="B99" t="n">
-        <v>131943</v>
+        <v>162722</v>
       </c>
       <c r="C99" t="s">
         <v>828</v>
@@ -16988,7 +16988,7 @@
         <v>53987</v>
       </c>
       <c r="B100" t="n">
-        <v>131944</v>
+        <v>162723</v>
       </c>
       <c r="C100" t="s">
         <v>835</v>
@@ -17213,7 +17213,7 @@
         <v>53987</v>
       </c>
       <c r="B103" t="n">
-        <v>131945</v>
+        <v>162724</v>
       </c>
       <c r="C103" t="s">
         <v>858</v>
@@ -17288,7 +17288,7 @@
         <v>53987</v>
       </c>
       <c r="B104" t="n">
-        <v>131946</v>
+        <v>162725</v>
       </c>
       <c r="C104" t="s">
         <v>864</v>
@@ -17353,7 +17353,7 @@
         <v>53987</v>
       </c>
       <c r="B105" t="n">
-        <v>131947</v>
+        <v>162726</v>
       </c>
       <c r="C105" t="s">
         <v>871</v>
@@ -17418,7 +17418,7 @@
         <v>53987</v>
       </c>
       <c r="B106" t="n">
-        <v>131948</v>
+        <v>162727</v>
       </c>
       <c r="C106" t="s">
         <v>878</v>
@@ -17487,7 +17487,7 @@
         <v>53987</v>
       </c>
       <c r="B107" t="n">
-        <v>131949</v>
+        <v>162728</v>
       </c>
       <c r="C107" t="s">
         <v>887</v>
@@ -17702,7 +17702,7 @@
         <v>53987</v>
       </c>
       <c r="B110" t="n">
-        <v>131950</v>
+        <v>162729</v>
       </c>
       <c r="C110" t="s">
         <v>912</v>
@@ -17777,7 +17777,7 @@
         <v>53987</v>
       </c>
       <c r="B111" t="n">
-        <v>131951</v>
+        <v>162730</v>
       </c>
       <c r="C111" t="s">
         <v>921</v>
@@ -17852,7 +17852,7 @@
         <v>53987</v>
       </c>
       <c r="B112" t="n">
-        <v>131952</v>
+        <v>162731</v>
       </c>
       <c r="C112" t="s">
         <v>927</v>
@@ -17927,7 +17927,7 @@
         <v>53987</v>
       </c>
       <c r="B113" t="n">
-        <v>131953</v>
+        <v>162732</v>
       </c>
       <c r="C113" t="s">
         <v>933</v>
@@ -18002,7 +18002,7 @@
         <v>53987</v>
       </c>
       <c r="B114" t="n">
-        <v>131954</v>
+        <v>162733</v>
       </c>
       <c r="C114" t="s">
         <v>942</v>
@@ -18073,7 +18073,7 @@
         <v>53987</v>
       </c>
       <c r="B115" t="n">
-        <v>131955</v>
+        <v>162734</v>
       </c>
       <c r="C115" t="s">
         <v>950</v>
@@ -18288,7 +18288,7 @@
         <v>53987</v>
       </c>
       <c r="B118" t="n">
-        <v>131956</v>
+        <v>162735</v>
       </c>
       <c r="C118" t="s">
         <v>974</v>
@@ -18363,7 +18363,7 @@
         <v>53987</v>
       </c>
       <c r="B119" t="n">
-        <v>131957</v>
+        <v>162736</v>
       </c>
       <c r="C119" t="s">
         <v>983</v>
@@ -18499,7 +18499,7 @@
         <v>53987</v>
       </c>
       <c r="B121" t="n">
-        <v>131958</v>
+        <v>162737</v>
       </c>
       <c r="C121" t="s">
         <v>996</v>
@@ -18574,7 +18574,7 @@
         <v>53987</v>
       </c>
       <c r="B122" t="n">
-        <v>131959</v>
+        <v>162738</v>
       </c>
       <c r="C122" t="s">
         <v>1005</v>
@@ -18649,7 +18649,7 @@
         <v>53987</v>
       </c>
       <c r="B123" t="n">
-        <v>131960</v>
+        <v>162739</v>
       </c>
       <c r="C123" t="s">
         <v>1012</v>
@@ -18724,7 +18724,7 @@
         <v>53987</v>
       </c>
       <c r="B124" t="n">
-        <v>131961</v>
+        <v>162740</v>
       </c>
       <c r="C124" t="s">
         <v>1021</v>
@@ -18870,7 +18870,7 @@
         <v>53987</v>
       </c>
       <c r="B126" t="n">
-        <v>131962</v>
+        <v>162741</v>
       </c>
       <c r="C126" t="s">
         <v>1032</v>
@@ -19152,7 +19152,7 @@
         <v>53987</v>
       </c>
       <c r="B130" t="n">
-        <v>131963</v>
+        <v>162742</v>
       </c>
       <c r="C130" t="s">
         <v>1061</v>
@@ -19298,7 +19298,7 @@
         <v>53987</v>
       </c>
       <c r="B132" t="n">
-        <v>131964</v>
+        <v>162743</v>
       </c>
       <c r="C132" t="s">
         <v>1079</v>
@@ -19373,7 +19373,7 @@
         <v>53987</v>
       </c>
       <c r="B133" t="n">
-        <v>131965</v>
+        <v>162744</v>
       </c>
       <c r="C133" t="s">
         <v>1085</v>
@@ -19448,7 +19448,7 @@
         <v>53987</v>
       </c>
       <c r="B134" t="n">
-        <v>131966</v>
+        <v>162745</v>
       </c>
       <c r="C134" t="s">
         <v>1091</v>
@@ -19523,7 +19523,7 @@
         <v>53987</v>
       </c>
       <c r="B135" t="n">
-        <v>131967</v>
+        <v>162746</v>
       </c>
       <c r="C135" t="s">
         <v>1100</v>
@@ -19598,7 +19598,7 @@
         <v>53987</v>
       </c>
       <c r="B136" t="n">
-        <v>131968</v>
+        <v>162747</v>
       </c>
       <c r="C136" t="s">
         <v>1108</v>
@@ -19663,7 +19663,7 @@
         <v>53987</v>
       </c>
       <c r="B137" t="n">
-        <v>131969</v>
+        <v>162748</v>
       </c>
       <c r="C137" t="s">
         <v>1117</v>
@@ -19738,7 +19738,7 @@
         <v>53987</v>
       </c>
       <c r="B138" t="n">
-        <v>131970</v>
+        <v>162749</v>
       </c>
       <c r="C138" t="s">
         <v>1124</v>
@@ -19813,7 +19813,7 @@
         <v>53987</v>
       </c>
       <c r="B139" t="n">
-        <v>131971</v>
+        <v>162750</v>
       </c>
       <c r="C139" t="s">
         <v>1132</v>
@@ -19888,7 +19888,7 @@
         <v>53987</v>
       </c>
       <c r="B140" t="n">
-        <v>131972</v>
+        <v>162751</v>
       </c>
       <c r="C140" t="s">
         <v>1138</v>
@@ -20105,7 +20105,7 @@
         <v>53987</v>
       </c>
       <c r="B143" t="n">
-        <v>131973</v>
+        <v>162752</v>
       </c>
       <c r="C143" t="s">
         <v>1162</v>
@@ -20174,7 +20174,7 @@
         <v>53987</v>
       </c>
       <c r="B144" t="n">
-        <v>131974</v>
+        <v>162753</v>
       </c>
       <c r="C144" t="s">
         <v>1170</v>
@@ -20243,7 +20243,7 @@
         <v>53987</v>
       </c>
       <c r="B145" t="n">
-        <v>131975</v>
+        <v>162754</v>
       </c>
       <c r="C145" t="s">
         <v>1177</v>
@@ -20314,7 +20314,7 @@
         <v>53987</v>
       </c>
       <c r="B146" t="n">
-        <v>131976</v>
+        <v>162755</v>
       </c>
       <c r="C146" t="s">
         <v>1185</v>
@@ -20385,7 +20385,7 @@
         <v>53987</v>
       </c>
       <c r="B147" t="n">
-        <v>131977</v>
+        <v>162756</v>
       </c>
       <c r="C147" t="s">
         <v>1192</v>
@@ -20456,7 +20456,7 @@
         <v>53987</v>
       </c>
       <c r="B148" t="n">
-        <v>131978</v>
+        <v>162757</v>
       </c>
       <c r="C148" t="s">
         <v>1197</v>
@@ -20602,7 +20602,7 @@
         <v>53987</v>
       </c>
       <c r="B150" t="n">
-        <v>131979</v>
+        <v>162758</v>
       </c>
       <c r="C150" t="s">
         <v>1211</v>
@@ -20673,7 +20673,7 @@
         <v>53987</v>
       </c>
       <c r="B151" t="n">
-        <v>131980</v>
+        <v>162759</v>
       </c>
       <c r="C151" t="s">
         <v>1219</v>
@@ -20744,7 +20744,7 @@
         <v>53987</v>
       </c>
       <c r="B152" t="n">
-        <v>131981</v>
+        <v>162760</v>
       </c>
       <c r="C152" t="s">
         <v>1225</v>
@@ -20886,7 +20886,7 @@
         <v>53987</v>
       </c>
       <c r="B154" t="n">
-        <v>131982</v>
+        <v>162761</v>
       </c>
       <c r="C154" t="s">
         <v>1243</v>
@@ -20957,7 +20957,7 @@
         <v>53987</v>
       </c>
       <c r="B155" t="n">
-        <v>131983</v>
+        <v>162762</v>
       </c>
       <c r="C155" t="s">
         <v>1249</v>
@@ -21028,7 +21028,7 @@
         <v>53987</v>
       </c>
       <c r="B156" t="n">
-        <v>131984</v>
+        <v>162763</v>
       </c>
       <c r="C156" t="s">
         <v>1255</v>
@@ -21166,7 +21166,7 @@
         <v>53987</v>
       </c>
       <c r="B158" t="n">
-        <v>131985</v>
+        <v>162764</v>
       </c>
       <c r="C158" t="s">
         <v>1266</v>
@@ -21231,7 +21231,7 @@
         <v>53987</v>
       </c>
       <c r="B159" t="n">
-        <v>131986</v>
+        <v>162765</v>
       </c>
       <c r="C159" t="s">
         <v>1275</v>
@@ -21426,7 +21426,7 @@
         <v>53987</v>
       </c>
       <c r="B162" t="n">
-        <v>131987</v>
+        <v>162766</v>
       </c>
       <c r="C162" t="s">
         <v>1298</v>
@@ -21495,7 +21495,7 @@
         <v>53987</v>
       </c>
       <c r="B163" t="n">
-        <v>131988</v>
+        <v>162767</v>
       </c>
       <c r="C163" t="s">
         <v>1307</v>
@@ -21635,7 +21635,7 @@
         <v>53987</v>
       </c>
       <c r="B165" t="n">
-        <v>131989</v>
+        <v>162768</v>
       </c>
       <c r="C165" t="s">
         <v>1326</v>
@@ -21696,7 +21696,7 @@
         <v>53987</v>
       </c>
       <c r="B166" t="n">
-        <v>131990</v>
+        <v>162769</v>
       </c>
       <c r="C166" t="s">
         <v>1335</v>
@@ -21826,7 +21826,7 @@
         <v>53987</v>
       </c>
       <c r="B168" t="n">
-        <v>131991</v>
+        <v>162770</v>
       </c>
       <c r="C168" t="s">
         <v>1348</v>
@@ -22017,7 +22017,7 @@
         <v>53987</v>
       </c>
       <c r="B171" t="n">
-        <v>131992</v>
+        <v>162771</v>
       </c>
       <c r="C171" t="s">
         <v>1369</v>
@@ -22082,7 +22082,7 @@
         <v>53987</v>
       </c>
       <c r="B172" t="n">
-        <v>131993</v>
+        <v>162772</v>
       </c>
       <c r="C172" t="s">
         <v>1375</v>
@@ -22143,7 +22143,7 @@
         <v>53987</v>
       </c>
       <c r="B173" t="n">
-        <v>131994</v>
+        <v>162773</v>
       </c>
       <c r="C173" t="s">
         <v>1382</v>
@@ -22210,7 +22210,7 @@
         <v>53987</v>
       </c>
       <c r="B174" t="n">
-        <v>131995</v>
+        <v>131927</v>
       </c>
       <c r="C174" t="s">
         <v>1390</v>
@@ -22277,7 +22277,7 @@
         <v>53987</v>
       </c>
       <c r="B175" t="n">
-        <v>131996</v>
+        <v>162774</v>
       </c>
       <c r="C175" t="s">
         <v>1396</v>
@@ -22344,7 +22344,7 @@
         <v>53987</v>
       </c>
       <c r="B176" t="n">
-        <v>131997</v>
+        <v>162775</v>
       </c>
       <c r="C176" t="s">
         <v>1403</v>
@@ -22480,7 +22480,7 @@
         <v>53987</v>
       </c>
       <c r="B178" t="n">
-        <v>131994</v>
+        <v>131927</v>
       </c>
       <c r="C178" t="s">
         <v>1390</v>
@@ -22541,7 +22541,7 @@
         <v>53987</v>
       </c>
       <c r="B179" t="n">
-        <v>131998</v>
+        <v>162776</v>
       </c>
       <c r="C179" t="s">
         <v>1426</v>
@@ -22612,7 +22612,7 @@
         <v>53987</v>
       </c>
       <c r="B180" t="n">
-        <v>131999</v>
+        <v>162777</v>
       </c>
       <c r="C180" t="s">
         <v>1435</v>
@@ -22681,7 +22681,7 @@
         <v>53987</v>
       </c>
       <c r="B181" t="n">
-        <v>132000</v>
+        <v>162778</v>
       </c>
       <c r="C181" t="s">
         <v>1442</v>
@@ -22823,7 +22823,7 @@
         <v>53987</v>
       </c>
       <c r="B183" t="n">
-        <v>132001</v>
+        <v>162779</v>
       </c>
       <c r="C183" t="s">
         <v>1460</v>
@@ -22894,7 +22894,7 @@
         <v>53987</v>
       </c>
       <c r="B184" t="n">
-        <v>132002</v>
+        <v>162780</v>
       </c>
       <c r="C184" t="s">
         <v>1469</v>
@@ -22963,7 +22963,7 @@
         <v>53987</v>
       </c>
       <c r="B185" t="n">
-        <v>132003</v>
+        <v>162781</v>
       </c>
       <c r="C185" t="s">
         <v>1479</v>
@@ -23024,7 +23024,7 @@
         <v>53987</v>
       </c>
       <c r="B186" t="n">
-        <v>132004</v>
+        <v>162782</v>
       </c>
       <c r="C186" t="s">
         <v>1488</v>
@@ -23093,7 +23093,7 @@
         <v>53987</v>
       </c>
       <c r="B187" t="n">
-        <v>132005</v>
+        <v>162783</v>
       </c>
       <c r="C187" t="s">
         <v>1495</v>
@@ -23164,7 +23164,7 @@
         <v>53987</v>
       </c>
       <c r="B188" t="n">
-        <v>132006</v>
+        <v>162784</v>
       </c>
       <c r="C188" t="s">
         <v>1505</v>
@@ -23233,7 +23233,7 @@
         <v>53987</v>
       </c>
       <c r="B189" t="n">
-        <v>132007</v>
+        <v>162785</v>
       </c>
       <c r="C189" t="s">
         <v>1514</v>
@@ -23304,7 +23304,7 @@
         <v>53987</v>
       </c>
       <c r="B190" t="n">
-        <v>132008</v>
+        <v>162786</v>
       </c>
       <c r="C190" t="s">
         <v>1523</v>
@@ -23373,7 +23373,7 @@
         <v>53987</v>
       </c>
       <c r="B191" t="n">
-        <v>132009</v>
+        <v>162787</v>
       </c>
       <c r="C191" t="s">
         <v>1529</v>
@@ -23444,7 +23444,7 @@
         <v>53987</v>
       </c>
       <c r="B192" t="n">
-        <v>132010</v>
+        <v>162788</v>
       </c>
       <c r="C192" t="s">
         <v>1536</v>
@@ -23505,7 +23505,7 @@
         <v>53987</v>
       </c>
       <c r="B193" t="n">
-        <v>132011</v>
+        <v>162789</v>
       </c>
       <c r="C193" t="s">
         <v>1543</v>
@@ -23566,7 +23566,7 @@
         <v>53987</v>
       </c>
       <c r="B194" t="n">
-        <v>132012</v>
+        <v>162790</v>
       </c>
       <c r="C194" t="s">
         <v>1550</v>
@@ -23779,7 +23779,7 @@
         <v>53987</v>
       </c>
       <c r="B197" t="n">
-        <v>132013</v>
+        <v>162791</v>
       </c>
       <c r="C197" t="s">
         <v>1574</v>
@@ -23850,7 +23850,7 @@
         <v>53987</v>
       </c>
       <c r="B198" t="n">
-        <v>132014</v>
+        <v>131950</v>
       </c>
       <c r="C198" t="s">
         <v>1583</v>
@@ -24063,7 +24063,7 @@
         <v>53987</v>
       </c>
       <c r="B201" t="n">
-        <v>132015</v>
+        <v>162792</v>
       </c>
       <c r="C201" t="s">
         <v>1607</v>
@@ -24134,7 +24134,7 @@
         <v>53987</v>
       </c>
       <c r="B202" t="n">
-        <v>132016</v>
+        <v>162793</v>
       </c>
       <c r="C202" t="s">
         <v>1616</v>
@@ -24209,7 +24209,7 @@
         <v>53987</v>
       </c>
       <c r="B203" t="n">
-        <v>132017</v>
+        <v>162794</v>
       </c>
       <c r="C203" t="s">
         <v>1623</v>
@@ -24274,7 +24274,7 @@
         <v>53987</v>
       </c>
       <c r="B204" t="n">
-        <v>132018</v>
+        <v>162795</v>
       </c>
       <c r="C204" t="s">
         <v>1632</v>
@@ -24414,7 +24414,7 @@
         <v>53987</v>
       </c>
       <c r="B206" t="n">
-        <v>132019</v>
+        <v>162796</v>
       </c>
       <c r="C206" t="s">
         <v>1646</v>
@@ -24485,7 +24485,7 @@
         <v>53987</v>
       </c>
       <c r="B207" t="n">
-        <v>132020</v>
+        <v>162797</v>
       </c>
       <c r="C207" t="s">
         <v>1654</v>
@@ -24556,7 +24556,7 @@
         <v>53987</v>
       </c>
       <c r="B208" t="n">
-        <v>132021</v>
+        <v>162798</v>
       </c>
       <c r="C208" t="s">
         <v>1661</v>
@@ -24627,7 +24627,7 @@
         <v>53987</v>
       </c>
       <c r="B209" t="n">
-        <v>132022</v>
+        <v>162799</v>
       </c>
       <c r="C209" t="s">
         <v>1668</v>
@@ -24698,7 +24698,7 @@
         <v>53987</v>
       </c>
       <c r="B210" t="n">
-        <v>132023</v>
+        <v>162800</v>
       </c>
       <c r="C210" t="s">
         <v>1675</v>
@@ -24769,7 +24769,7 @@
         <v>53987</v>
       </c>
       <c r="B211" t="n">
-        <v>132024</v>
+        <v>162801</v>
       </c>
       <c r="C211" t="s">
         <v>1682</v>
@@ -24907,7 +24907,7 @@
         <v>53987</v>
       </c>
       <c r="B213" t="n">
-        <v>132025</v>
+        <v>162802</v>
       </c>
       <c r="C213" t="s">
         <v>1694</v>
@@ -25053,7 +25053,7 @@
         <v>53987</v>
       </c>
       <c r="B215" t="n">
-        <v>132026</v>
+        <v>162803</v>
       </c>
       <c r="C215" t="s">
         <v>1711</v>
@@ -25124,7 +25124,7 @@
         <v>53987</v>
       </c>
       <c r="B216" t="n">
-        <v>132027</v>
+        <v>162804</v>
       </c>
       <c r="C216" t="s">
         <v>1719</v>
@@ -25266,7 +25266,7 @@
         <v>53987</v>
       </c>
       <c r="B218" t="n">
-        <v>132028</v>
+        <v>162805</v>
       </c>
       <c r="C218" t="s">
         <v>1734</v>
@@ -25412,7 +25412,7 @@
         <v>53987</v>
       </c>
       <c r="B220" t="n">
-        <v>132029</v>
+        <v>162806</v>
       </c>
       <c r="C220" t="s">
         <v>1749</v>
@@ -25487,7 +25487,7 @@
         <v>53987</v>
       </c>
       <c r="B221" t="n">
-        <v>132030</v>
+        <v>162807</v>
       </c>
       <c r="C221" t="s">
         <v>1756</v>
@@ -25562,7 +25562,7 @@
         <v>53987</v>
       </c>
       <c r="B222" t="n">
-        <v>132031</v>
+        <v>162808</v>
       </c>
       <c r="C222" t="s">
         <v>1766</v>
@@ -25637,7 +25637,7 @@
         <v>53987</v>
       </c>
       <c r="B223" t="n">
-        <v>132032</v>
+        <v>162809</v>
       </c>
       <c r="C223" t="s">
         <v>1775</v>
@@ -25712,7 +25712,7 @@
         <v>53987</v>
       </c>
       <c r="B224" t="n">
-        <v>132033</v>
+        <v>162810</v>
       </c>
       <c r="C224" t="s">
         <v>1782</v>
@@ -25787,7 +25787,7 @@
         <v>53987</v>
       </c>
       <c r="B225" t="n">
-        <v>132034</v>
+        <v>162811</v>
       </c>
       <c r="C225" t="s">
         <v>1790</v>
@@ -25858,7 +25858,7 @@
         <v>53987</v>
       </c>
       <c r="B226" t="n">
-        <v>132035</v>
+        <v>162812</v>
       </c>
       <c r="C226" t="s">
         <v>1798</v>
@@ -25933,7 +25933,7 @@
         <v>53987</v>
       </c>
       <c r="B227" t="n">
-        <v>132036</v>
+        <v>162813</v>
       </c>
       <c r="C227" t="s">
         <v>1807</v>
@@ -26008,7 +26008,7 @@
         <v>53987</v>
       </c>
       <c r="B228" t="n">
-        <v>132037</v>
+        <v>162814</v>
       </c>
       <c r="C228" t="s">
         <v>1814</v>
@@ -26083,7 +26083,7 @@
         <v>53987</v>
       </c>
       <c r="B229" t="n">
-        <v>132038</v>
+        <v>162815</v>
       </c>
       <c r="C229" t="s">
         <v>1821</v>
@@ -26233,7 +26233,7 @@
         <v>53987</v>
       </c>
       <c r="B231" t="n">
-        <v>132039</v>
+        <v>162816</v>
       </c>
       <c r="C231" t="s">
         <v>1839</v>
@@ -26308,7 +26308,7 @@
         <v>53987</v>
       </c>
       <c r="B232" t="n">
-        <v>132040</v>
+        <v>162817</v>
       </c>
       <c r="C232" t="s">
         <v>1847</v>
@@ -26383,7 +26383,7 @@
         <v>53987</v>
       </c>
       <c r="B233" t="n">
-        <v>132041</v>
+        <v>162818</v>
       </c>
       <c r="C233" t="s">
         <v>1855</v>
@@ -26533,7 +26533,7 @@
         <v>53987</v>
       </c>
       <c r="B235" t="n">
-        <v>132042</v>
+        <v>162819</v>
       </c>
       <c r="C235" t="s">
         <v>1873</v>
@@ -26608,7 +26608,7 @@
         <v>53987</v>
       </c>
       <c r="B236" t="n">
-        <v>132043</v>
+        <v>162820</v>
       </c>
       <c r="C236" t="s">
         <v>1882</v>
@@ -26758,7 +26758,7 @@
         <v>53987</v>
       </c>
       <c r="B238" t="n">
-        <v>132044</v>
+        <v>162821</v>
       </c>
       <c r="C238" t="s">
         <v>1895</v>
@@ -26829,7 +26829,7 @@
         <v>53987</v>
       </c>
       <c r="B239" t="n">
-        <v>132045</v>
+        <v>162822</v>
       </c>
       <c r="C239" t="s">
         <v>1904</v>
@@ -27050,7 +27050,7 @@
         <v>53987</v>
       </c>
       <c r="B242" t="n">
-        <v>132046</v>
+        <v>162823</v>
       </c>
       <c r="C242" t="s">
         <v>1928</v>
@@ -27125,7 +27125,7 @@
         <v>53987</v>
       </c>
       <c r="B243" t="n">
-        <v>132047</v>
+        <v>162824</v>
       </c>
       <c r="C243" t="s">
         <v>1937</v>
@@ -27200,7 +27200,7 @@
         <v>53987</v>
       </c>
       <c r="B244" t="n">
-        <v>132048</v>
+        <v>162825</v>
       </c>
       <c r="C244" t="s">
         <v>1946</v>
@@ -27275,7 +27275,7 @@
         <v>53987</v>
       </c>
       <c r="B245" t="n">
-        <v>132049</v>
+        <v>162826</v>
       </c>
       <c r="C245" t="s">
         <v>1956</v>
@@ -27350,7 +27350,7 @@
         <v>53987</v>
       </c>
       <c r="B246" t="n">
-        <v>132050</v>
+        <v>162827</v>
       </c>
       <c r="C246" t="s">
         <v>1965</v>
@@ -27425,7 +27425,7 @@
         <v>53987</v>
       </c>
       <c r="B247" t="n">
-        <v>132051</v>
+        <v>162828</v>
       </c>
       <c r="C247" t="s">
         <v>1972</v>
@@ -27571,7 +27571,7 @@
         <v>53987</v>
       </c>
       <c r="B249" t="n">
-        <v>132052</v>
+        <v>162829</v>
       </c>
       <c r="C249" t="s">
         <v>1990</v>
@@ -27646,7 +27646,7 @@
         <v>53987</v>
       </c>
       <c r="B250" t="n">
-        <v>132053</v>
+        <v>162830</v>
       </c>
       <c r="C250" t="s">
         <v>1997</v>
@@ -27721,7 +27721,7 @@
         <v>53987</v>
       </c>
       <c r="B251" t="n">
-        <v>132054</v>
+        <v>162831</v>
       </c>
       <c r="C251" t="s">
         <v>2006</v>
@@ -27796,7 +27796,7 @@
         <v>53987</v>
       </c>
       <c r="B252" t="n">
-        <v>132055</v>
+        <v>162832</v>
       </c>
       <c r="C252" t="s">
         <v>2016</v>
@@ -27871,7 +27871,7 @@
         <v>53987</v>
       </c>
       <c r="B253" t="n">
-        <v>132056</v>
+        <v>162833</v>
       </c>
       <c r="C253" t="s">
         <v>2023</v>
@@ -27946,7 +27946,7 @@
         <v>53987</v>
       </c>
       <c r="B254" t="n">
-        <v>132057</v>
+        <v>162834</v>
       </c>
       <c r="C254" t="s">
         <v>2033</v>
@@ -28021,7 +28021,7 @@
         <v>53987</v>
       </c>
       <c r="B255" t="n">
-        <v>132058</v>
+        <v>162835</v>
       </c>
       <c r="C255" t="s">
         <v>2043</v>
@@ -28096,7 +28096,7 @@
         <v>53987</v>
       </c>
       <c r="B256" t="n">
-        <v>132059</v>
+        <v>162836</v>
       </c>
       <c r="C256" t="s">
         <v>2050</v>
@@ -28163,7 +28163,7 @@
         <v>53987</v>
       </c>
       <c r="B257" t="n">
-        <v>132060</v>
+        <v>162837</v>
       </c>
       <c r="C257" t="s">
         <v>2060</v>
@@ -28238,7 +28238,7 @@
         <v>53987</v>
       </c>
       <c r="B258" t="n">
-        <v>132061</v>
+        <v>162838</v>
       </c>
       <c r="C258" t="s">
         <v>2070</v>
@@ -28388,7 +28388,7 @@
         <v>53987</v>
       </c>
       <c r="B260" t="n">
-        <v>132062</v>
+        <v>162839</v>
       </c>
       <c r="C260" t="s">
         <v>2084</v>
@@ -28463,7 +28463,7 @@
         <v>53987</v>
       </c>
       <c r="B261" t="n">
-        <v>132063</v>
+        <v>162840</v>
       </c>
       <c r="C261" t="s">
         <v>2093</v>
@@ -28613,7 +28613,7 @@
         <v>53987</v>
       </c>
       <c r="B263" t="n">
-        <v>132064</v>
+        <v>162841</v>
       </c>
       <c r="C263" t="s">
         <v>2109</v>
@@ -28688,7 +28688,7 @@
         <v>53987</v>
       </c>
       <c r="B264" t="n">
-        <v>132065</v>
+        <v>162842</v>
       </c>
       <c r="C264" t="s">
         <v>2118</v>
@@ -28828,7 +28828,7 @@
         <v>53987</v>
       </c>
       <c r="B266" t="n">
-        <v>132066</v>
+        <v>162843</v>
       </c>
       <c r="C266" t="s">
         <v>2132</v>
@@ -28974,7 +28974,7 @@
         <v>53987</v>
       </c>
       <c r="B268" t="n">
-        <v>132067</v>
+        <v>162844</v>
       </c>
       <c r="C268" t="s">
         <v>2147</v>
@@ -29049,7 +29049,7 @@
         <v>53987</v>
       </c>
       <c r="B269" t="n">
-        <v>132068</v>
+        <v>162845</v>
       </c>
       <c r="C269" t="s">
         <v>2153</v>
@@ -29199,7 +29199,7 @@
         <v>53987</v>
       </c>
       <c r="B271" t="n">
-        <v>132069</v>
+        <v>162846</v>
       </c>
       <c r="C271" t="s">
         <v>2169</v>
@@ -29274,7 +29274,7 @@
         <v>53987</v>
       </c>
       <c r="B272" t="n">
-        <v>132070</v>
+        <v>162847</v>
       </c>
       <c r="C272" t="s">
         <v>2179</v>
@@ -29345,7 +29345,7 @@
         <v>53987</v>
       </c>
       <c r="B273" t="n">
-        <v>132071</v>
+        <v>162848</v>
       </c>
       <c r="C273" t="s">
         <v>2188</v>
@@ -29420,7 +29420,7 @@
         <v>53987</v>
       </c>
       <c r="B274" t="n">
-        <v>132072</v>
+        <v>162849</v>
       </c>
       <c r="C274" t="s">
         <v>2197</v>
@@ -29495,7 +29495,7 @@
         <v>53987</v>
       </c>
       <c r="B275" t="n">
-        <v>132073</v>
+        <v>162850</v>
       </c>
       <c r="C275" t="s">
         <v>2204</v>
@@ -29570,7 +29570,7 @@
         <v>53987</v>
       </c>
       <c r="B276" t="n">
-        <v>132074</v>
+        <v>162851</v>
       </c>
       <c r="C276" t="s">
         <v>2213</v>
@@ -29639,7 +29639,7 @@
         <v>53987</v>
       </c>
       <c r="B277" t="n">
-        <v>132075</v>
+        <v>162852</v>
       </c>
       <c r="C277" t="s">
         <v>2222</v>
@@ -29714,7 +29714,7 @@
         <v>53987</v>
       </c>
       <c r="B278" t="n">
-        <v>132076</v>
+        <v>162853</v>
       </c>
       <c r="C278" t="s">
         <v>2230</v>
@@ -29789,7 +29789,7 @@
         <v>53987</v>
       </c>
       <c r="B279" t="n">
-        <v>132077</v>
+        <v>162854</v>
       </c>
       <c r="C279" t="s">
         <v>2238</v>
@@ -29864,7 +29864,7 @@
         <v>53987</v>
       </c>
       <c r="B280" t="n">
-        <v>132078</v>
+        <v>162855</v>
       </c>
       <c r="C280" t="s">
         <v>2245</v>
@@ -29929,7 +29929,7 @@
         <v>53987</v>
       </c>
       <c r="B281" t="n">
-        <v>132079</v>
+        <v>162856</v>
       </c>
       <c r="C281" t="s">
         <v>2252</v>
@@ -30075,7 +30075,7 @@
         <v>53987</v>
       </c>
       <c r="B283" t="n">
-        <v>132080</v>
+        <v>162857</v>
       </c>
       <c r="C283" t="s">
         <v>2268</v>
@@ -30150,7 +30150,7 @@
         <v>53987</v>
       </c>
       <c r="B284" t="n">
-        <v>132081</v>
+        <v>162858</v>
       </c>
       <c r="C284" t="s">
         <v>2275</v>
@@ -30225,7 +30225,7 @@
         <v>53987</v>
       </c>
       <c r="B285" t="n">
-        <v>132082</v>
+        <v>162859</v>
       </c>
       <c r="C285" t="s">
         <v>2285</v>
@@ -30300,7 +30300,7 @@
         <v>53987</v>
       </c>
       <c r="B286" t="n">
-        <v>132083</v>
+        <v>162860</v>
       </c>
       <c r="C286" t="s">
         <v>2294</v>
@@ -30371,7 +30371,7 @@
         <v>53987</v>
       </c>
       <c r="B287" t="n">
-        <v>132084</v>
+        <v>162861</v>
       </c>
       <c r="C287" t="s">
         <v>2303</v>
@@ -30442,7 +30442,7 @@
         <v>53987</v>
       </c>
       <c r="B288" t="n">
-        <v>132085</v>
+        <v>162862</v>
       </c>
       <c r="C288" t="s">
         <v>2312</v>
@@ -30517,7 +30517,7 @@
         <v>53987</v>
       </c>
       <c r="B289" t="n">
-        <v>132086</v>
+        <v>162863</v>
       </c>
       <c r="C289" t="s">
         <v>2322</v>
@@ -30582,7 +30582,7 @@
         <v>53987</v>
       </c>
       <c r="B290" t="n">
-        <v>132087</v>
+        <v>162864</v>
       </c>
       <c r="C290" t="s">
         <v>2332</v>
@@ -30657,7 +30657,7 @@
         <v>53987</v>
       </c>
       <c r="B291" t="n">
-        <v>132088</v>
+        <v>162865</v>
       </c>
       <c r="C291" t="s">
         <v>2342</v>
@@ -30732,7 +30732,7 @@
         <v>53987</v>
       </c>
       <c r="B292" t="n">
-        <v>132089</v>
+        <v>162866</v>
       </c>
       <c r="C292" t="s">
         <v>2349</v>
@@ -30807,7 +30807,7 @@
         <v>53987</v>
       </c>
       <c r="B293" t="n">
-        <v>132090</v>
+        <v>162867</v>
       </c>
       <c r="C293" t="s">
         <v>2357</v>
@@ -30872,7 +30872,7 @@
         <v>53987</v>
       </c>
       <c r="B294" t="n">
-        <v>132091</v>
+        <v>162868</v>
       </c>
       <c r="C294" t="s">
         <v>2366</v>
@@ -30947,7 +30947,7 @@
         <v>53987</v>
       </c>
       <c r="B295" t="n">
-        <v>132092</v>
+        <v>162869</v>
       </c>
       <c r="C295" t="s">
         <v>2374</v>
@@ -31022,7 +31022,7 @@
         <v>53987</v>
       </c>
       <c r="B296" t="n">
-        <v>132093</v>
+        <v>162870</v>
       </c>
       <c r="C296" t="s">
         <v>2381</v>
@@ -31097,7 +31097,7 @@
         <v>53987</v>
       </c>
       <c r="B297" t="n">
-        <v>132094</v>
+        <v>162871</v>
       </c>
       <c r="C297" t="s">
         <v>2391</v>
@@ -31168,7 +31168,7 @@
         <v>53987</v>
       </c>
       <c r="B298" t="n">
-        <v>132095</v>
+        <v>162872</v>
       </c>
       <c r="C298" t="s">
         <v>2397</v>
@@ -31237,7 +31237,7 @@
         <v>53987</v>
       </c>
       <c r="B299" t="n">
-        <v>132096</v>
+        <v>162873</v>
       </c>
       <c r="C299" t="s">
         <v>2405</v>
@@ -31308,7 +31308,7 @@
         <v>53987</v>
       </c>
       <c r="B300" t="n">
-        <v>132097</v>
+        <v>162874</v>
       </c>
       <c r="C300" t="s">
         <v>2414</v>
@@ -31379,7 +31379,7 @@
         <v>53987</v>
       </c>
       <c r="B301" t="n">
-        <v>132098</v>
+        <v>162875</v>
       </c>
       <c r="C301" t="s">
         <v>2424</v>
@@ -31450,7 +31450,7 @@
         <v>53987</v>
       </c>
       <c r="B302" t="n">
-        <v>132099</v>
+        <v>131953</v>
       </c>
       <c r="C302" t="s">
         <v>2433</v>
@@ -31517,7 +31517,7 @@
         <v>53987</v>
       </c>
       <c r="B303" t="n">
-        <v>132100</v>
+        <v>162876</v>
       </c>
       <c r="C303" t="s">
         <v>2440</v>
@@ -31584,7 +31584,7 @@
         <v>53987</v>
       </c>
       <c r="B304" t="n">
-        <v>132101</v>
+        <v>162877</v>
       </c>
       <c r="C304" t="s">
         <v>2447</v>
@@ -31655,7 +31655,7 @@
         <v>53987</v>
       </c>
       <c r="B305" t="n">
-        <v>132102</v>
+        <v>162878</v>
       </c>
       <c r="C305" t="s">
         <v>2457</v>
@@ -31726,7 +31726,7 @@
         <v>53987</v>
       </c>
       <c r="B306" t="n">
-        <v>132103</v>
+        <v>162879</v>
       </c>
       <c r="C306" t="s">
         <v>2466</v>
@@ -31793,7 +31793,7 @@
         <v>53987</v>
       </c>
       <c r="B307" t="n">
-        <v>132104</v>
+        <v>162880</v>
       </c>
       <c r="C307" t="s">
         <v>2472</v>
@@ -31864,7 +31864,7 @@
         <v>53987</v>
       </c>
       <c r="B308" t="n">
-        <v>132105</v>
+        <v>162881</v>
       </c>
       <c r="C308" t="s">
         <v>2479</v>
@@ -31935,7 +31935,7 @@
         <v>53987</v>
       </c>
       <c r="B309" t="n">
-        <v>132106</v>
+        <v>162882</v>
       </c>
       <c r="C309" t="s">
         <v>2488</v>
@@ -32002,7 +32002,7 @@
         <v>53987</v>
       </c>
       <c r="B310" t="n">
-        <v>132107</v>
+        <v>162883</v>
       </c>
       <c r="C310" t="s">
         <v>2494</v>
@@ -32073,7 +32073,7 @@
         <v>53987</v>
       </c>
       <c r="B311" t="n">
-        <v>132108</v>
+        <v>162884</v>
       </c>
       <c r="C311" t="s">
         <v>2501</v>
@@ -32144,7 +32144,7 @@
         <v>53987</v>
       </c>
       <c r="B312" t="n">
-        <v>132109</v>
+        <v>162885</v>
       </c>
       <c r="C312" t="s">
         <v>2511</v>
@@ -32211,7 +32211,7 @@
         <v>53987</v>
       </c>
       <c r="B313" t="n">
-        <v>132110</v>
+        <v>162886</v>
       </c>
       <c r="C313" t="s">
         <v>2518</v>
@@ -32278,7 +32278,7 @@
         <v>53987</v>
       </c>
       <c r="B314" t="n">
-        <v>132111</v>
+        <v>162887</v>
       </c>
       <c r="C314" t="s">
         <v>2525</v>
@@ -32353,7 +32353,7 @@
         <v>53987</v>
       </c>
       <c r="B315" t="n">
-        <v>132112</v>
+        <v>162888</v>
       </c>
       <c r="C315" t="s">
         <v>2534</v>
@@ -32428,7 +32428,7 @@
         <v>53987</v>
       </c>
       <c r="B316" t="n">
-        <v>132113</v>
+        <v>162889</v>
       </c>
       <c r="C316" t="s">
         <v>2540</v>
@@ -32503,7 +32503,7 @@
         <v>53987</v>
       </c>
       <c r="B317" t="n">
-        <v>132013</v>
+        <v>131950</v>
       </c>
       <c r="C317" t="s">
         <v>1583</v>
@@ -32578,7 +32578,7 @@
         <v>53987</v>
       </c>
       <c r="B318" t="n">
-        <v>132114</v>
+        <v>162890</v>
       </c>
       <c r="C318" t="s">
         <v>2555</v>
@@ -32649,7 +32649,7 @@
         <v>53987</v>
       </c>
       <c r="B319" t="n">
-        <v>132115</v>
+        <v>162891</v>
       </c>
       <c r="C319" t="s">
         <v>2562</v>
@@ -32724,7 +32724,7 @@
         <v>53987</v>
       </c>
       <c r="B320" t="n">
-        <v>132116</v>
+        <v>162892</v>
       </c>
       <c r="C320" t="s">
         <v>2571</v>
@@ -32799,7 +32799,7 @@
         <v>53987</v>
       </c>
       <c r="B321" t="n">
-        <v>132117</v>
+        <v>162893</v>
       </c>
       <c r="C321" t="s">
         <v>2580</v>
@@ -32874,7 +32874,7 @@
         <v>53987</v>
       </c>
       <c r="B322" t="n">
-        <v>132118</v>
+        <v>162894</v>
       </c>
       <c r="C322" t="s">
         <v>2590</v>
@@ -33020,7 +33020,7 @@
         <v>53987</v>
       </c>
       <c r="B324" t="n">
-        <v>132119</v>
+        <v>162895</v>
       </c>
       <c r="C324" t="s">
         <v>2608</v>
@@ -33170,7 +33170,7 @@
         <v>53987</v>
       </c>
       <c r="B326" t="n">
-        <v>132120</v>
+        <v>162896</v>
       </c>
       <c r="C326" t="s">
         <v>2625</v>
@@ -33245,7 +33245,7 @@
         <v>53987</v>
       </c>
       <c r="B327" t="n">
-        <v>132121</v>
+        <v>162897</v>
       </c>
       <c r="C327" t="s">
         <v>2634</v>
@@ -33316,7 +33316,7 @@
         <v>53987</v>
       </c>
       <c r="B328" t="n">
-        <v>132122</v>
+        <v>162898</v>
       </c>
       <c r="C328" t="s">
         <v>2641</v>
@@ -33391,7 +33391,7 @@
         <v>53987</v>
       </c>
       <c r="B329" t="n">
-        <v>132123</v>
+        <v>162899</v>
       </c>
       <c r="C329" t="s">
         <v>2650</v>
@@ -33466,7 +33466,7 @@
         <v>53987</v>
       </c>
       <c r="B330" t="n">
-        <v>132124</v>
+        <v>162900</v>
       </c>
       <c r="C330" t="s">
         <v>2660</v>
@@ -33541,7 +33541,7 @@
         <v>53987</v>
       </c>
       <c r="B331" t="n">
-        <v>132125</v>
+        <v>162901</v>
       </c>
       <c r="C331" t="s">
         <v>2670</v>
@@ -33616,7 +33616,7 @@
         <v>53987</v>
       </c>
       <c r="B332" t="n">
-        <v>132126</v>
+        <v>162902</v>
       </c>
       <c r="C332" t="s">
         <v>2678</v>
@@ -33691,7 +33691,7 @@
         <v>53987</v>
       </c>
       <c r="B333" t="n">
-        <v>132127</v>
+        <v>162903</v>
       </c>
       <c r="C333" t="s">
         <v>2687</v>
@@ -33766,7 +33766,7 @@
         <v>53987</v>
       </c>
       <c r="B334" t="n">
-        <v>132128</v>
+        <v>162904</v>
       </c>
       <c r="C334" t="s">
         <v>2696</v>
@@ -33841,7 +33841,7 @@
         <v>53987</v>
       </c>
       <c r="B335" t="n">
-        <v>132129</v>
+        <v>162905</v>
       </c>
       <c r="C335" t="s">
         <v>2705</v>
@@ -33916,7 +33916,7 @@
         <v>53987</v>
       </c>
       <c r="B336" t="n">
-        <v>132130</v>
+        <v>162906</v>
       </c>
       <c r="C336" t="s">
         <v>2714</v>
@@ -33987,7 +33987,7 @@
         <v>53987</v>
       </c>
       <c r="B337" t="n">
-        <v>132098</v>
+        <v>131953</v>
       </c>
       <c r="C337" t="s">
         <v>2433</v>
@@ -34062,7 +34062,7 @@
         <v>53987</v>
       </c>
       <c r="B338" t="n">
-        <v>132131</v>
+        <v>162907</v>
       </c>
       <c r="C338" t="s">
         <v>2728</v>
@@ -34137,7 +34137,7 @@
         <v>53987</v>
       </c>
       <c r="B339" t="n">
-        <v>132132</v>
+        <v>162908</v>
       </c>
       <c r="C339" t="s">
         <v>2737</v>
@@ -34287,7 +34287,7 @@
         <v>53987</v>
       </c>
       <c r="B341" t="n">
-        <v>132133</v>
+        <v>162909</v>
       </c>
       <c r="C341" t="s">
         <v>2754</v>
@@ -34362,7 +34362,7 @@
         <v>53987</v>
       </c>
       <c r="B342" t="n">
-        <v>132134</v>
+        <v>162910</v>
       </c>
       <c r="C342" t="s">
         <v>2764</v>
@@ -34437,7 +34437,7 @@
         <v>53987</v>
       </c>
       <c r="B343" t="n">
-        <v>132135</v>
+        <v>162911</v>
       </c>
       <c r="C343" t="s">
         <v>2773</v>
@@ -34512,7 +34512,7 @@
         <v>53987</v>
       </c>
       <c r="B344" t="n">
-        <v>132136</v>
+        <v>162912</v>
       </c>
       <c r="C344" t="s">
         <v>2782</v>
@@ -34587,7 +34587,7 @@
         <v>53987</v>
       </c>
       <c r="B345" t="n">
-        <v>132137</v>
+        <v>162913</v>
       </c>
       <c r="C345" t="s">
         <v>2791</v>
@@ -34662,7 +34662,7 @@
         <v>53987</v>
       </c>
       <c r="B346" t="n">
-        <v>132138</v>
+        <v>162914</v>
       </c>
       <c r="C346" t="s">
         <v>2800</v>
@@ -34737,7 +34737,7 @@
         <v>53987</v>
       </c>
       <c r="B347" t="n">
-        <v>132139</v>
+        <v>162915</v>
       </c>
       <c r="C347" t="s">
         <v>2810</v>
@@ -34812,7 +34812,7 @@
         <v>53987</v>
       </c>
       <c r="B348" t="n">
-        <v>132140</v>
+        <v>162916</v>
       </c>
       <c r="C348" t="s">
         <v>2820</v>
@@ -34962,7 +34962,7 @@
         <v>53987</v>
       </c>
       <c r="B350" t="n">
-        <v>132141</v>
+        <v>162917</v>
       </c>
       <c r="C350" t="s">
         <v>2839</v>
@@ -35027,7 +35027,7 @@
         <v>53987</v>
       </c>
       <c r="B351" t="n">
-        <v>132142</v>
+        <v>162918</v>
       </c>
       <c r="C351" t="s">
         <v>2849</v>
@@ -35102,7 +35102,7 @@
         <v>53987</v>
       </c>
       <c r="B352" t="n">
-        <v>132143</v>
+        <v>162919</v>
       </c>
       <c r="C352" t="s">
         <v>2858</v>
@@ -35177,7 +35177,7 @@
         <v>53987</v>
       </c>
       <c r="B353" t="n">
-        <v>132144</v>
+        <v>162920</v>
       </c>
       <c r="C353" t="s">
         <v>2867</v>
@@ -35252,7 +35252,7 @@
         <v>53987</v>
       </c>
       <c r="B354" t="n">
-        <v>132145</v>
+        <v>162921</v>
       </c>
       <c r="C354" t="s">
         <v>2877</v>
@@ -35327,7 +35327,7 @@
         <v>53987</v>
       </c>
       <c r="B355" t="n">
-        <v>132146</v>
+        <v>162922</v>
       </c>
       <c r="C355" t="s">
         <v>2883</v>
@@ -35402,7 +35402,7 @@
         <v>53987</v>
       </c>
       <c r="B356" t="n">
-        <v>132147</v>
+        <v>162923</v>
       </c>
       <c r="C356" t="s">
         <v>2892</v>
@@ -35467,7 +35467,7 @@
         <v>53987</v>
       </c>
       <c r="B357" t="n">
-        <v>132148</v>
+        <v>162924</v>
       </c>
       <c r="C357" t="s">
         <v>2902</v>
@@ -35538,7 +35538,7 @@
         <v>53987</v>
       </c>
       <c r="B358" t="n">
-        <v>132149</v>
+        <v>162925</v>
       </c>
       <c r="C358" t="s">
         <v>2909</v>
@@ -35613,7 +35613,7 @@
         <v>53987</v>
       </c>
       <c r="B359" t="n">
-        <v>132150</v>
+        <v>162926</v>
       </c>
       <c r="C359" t="s">
         <v>2916</v>
@@ -35688,7 +35688,7 @@
         <v>53987</v>
       </c>
       <c r="B360" t="n">
-        <v>132151</v>
+        <v>162927</v>
       </c>
       <c r="C360" t="s">
         <v>2926</v>
@@ -35763,7 +35763,7 @@
         <v>53987</v>
       </c>
       <c r="B361" t="n">
-        <v>132152</v>
+        <v>162928</v>
       </c>
       <c r="C361" t="s">
         <v>2935</v>
@@ -35838,7 +35838,7 @@
         <v>53987</v>
       </c>
       <c r="B362" t="n">
-        <v>132153</v>
+        <v>162929</v>
       </c>
       <c r="C362" t="s">
         <v>2942</v>
@@ -35913,7 +35913,7 @@
         <v>53987</v>
       </c>
       <c r="B363" t="n">
-        <v>132154</v>
+        <v>162930</v>
       </c>
       <c r="C363" t="s">
         <v>2951</v>
@@ -35988,7 +35988,7 @@
         <v>53987</v>
       </c>
       <c r="B364" t="n">
-        <v>132155</v>
+        <v>162931</v>
       </c>
       <c r="C364" t="s">
         <v>2961</v>
@@ -36063,7 +36063,7 @@
         <v>53987</v>
       </c>
       <c r="B365" t="n">
-        <v>132156</v>
+        <v>162932</v>
       </c>
       <c r="C365" t="s">
         <v>2971</v>
@@ -36138,7 +36138,7 @@
         <v>53987</v>
       </c>
       <c r="B366" t="n">
-        <v>132157</v>
+        <v>162933</v>
       </c>
       <c r="C366" t="s">
         <v>2981</v>
@@ -36203,7 +36203,7 @@
         <v>53987</v>
       </c>
       <c r="B367" t="n">
-        <v>132158</v>
+        <v>162934</v>
       </c>
       <c r="C367" t="s">
         <v>2990</v>
@@ -36349,7 +36349,7 @@
         <v>53987</v>
       </c>
       <c r="B369" t="n">
-        <v>132159</v>
+        <v>162935</v>
       </c>
       <c r="C369" t="s">
         <v>3007</v>
@@ -36424,7 +36424,7 @@
         <v>53987</v>
       </c>
       <c r="B370" t="n">
-        <v>132160</v>
+        <v>162936</v>
       </c>
       <c r="C370" t="s">
         <v>3016</v>
@@ -36499,7 +36499,7 @@
         <v>53987</v>
       </c>
       <c r="B371" t="n">
-        <v>132161</v>
+        <v>162937</v>
       </c>
       <c r="C371" t="s">
         <v>3026</v>
@@ -36572,7 +36572,7 @@
         <v>53987</v>
       </c>
       <c r="B372" t="n">
-        <v>132162</v>
+        <v>162938</v>
       </c>
       <c r="C372" t="s">
         <v>3035</v>
@@ -36722,7 +36722,7 @@
         <v>53987</v>
       </c>
       <c r="B374" t="n">
-        <v>132163</v>
+        <v>162939</v>
       </c>
       <c r="C374" t="s">
         <v>3054</v>
@@ -36797,7 +36797,7 @@
         <v>53987</v>
       </c>
       <c r="B375" t="n">
-        <v>132164</v>
+        <v>162940</v>
       </c>
       <c r="C375" t="s">
         <v>3063</v>
@@ -36868,7 +36868,7 @@
         <v>53987</v>
       </c>
       <c r="B376" t="n">
-        <v>132165</v>
+        <v>162941</v>
       </c>
       <c r="C376" t="s">
         <v>3071</v>
@@ -36939,7 +36939,7 @@
         <v>53987</v>
       </c>
       <c r="B377" t="n">
-        <v>132166</v>
+        <v>162942</v>
       </c>
       <c r="C377" t="s">
         <v>3079</v>
@@ -37010,7 +37010,7 @@
         <v>53987</v>
       </c>
       <c r="B378" t="n">
-        <v>132167</v>
+        <v>162943</v>
       </c>
       <c r="C378" t="s">
         <v>3086</v>
@@ -37067,7 +37067,7 @@
         <v>53987</v>
       </c>
       <c r="B379" t="n">
-        <v>132168</v>
+        <v>162944</v>
       </c>
       <c r="C379" t="s">
         <v>3093</v>
@@ -37138,7 +37138,7 @@
         <v>53987</v>
       </c>
       <c r="B380" t="n">
-        <v>132169</v>
+        <v>162945</v>
       </c>
       <c r="C380" t="s">
         <v>3100</v>
@@ -37205,7 +37205,7 @@
         <v>53987</v>
       </c>
       <c r="B381" t="n">
-        <v>132170</v>
+        <v>162946</v>
       </c>
       <c r="C381" t="s">
         <v>3107</v>
@@ -37262,7 +37262,7 @@
         <v>53987</v>
       </c>
       <c r="B382" t="n">
-        <v>132171</v>
+        <v>162947</v>
       </c>
       <c r="C382" t="s">
         <v>3113</v>
@@ -37331,7 +37331,7 @@
         <v>53987</v>
       </c>
       <c r="B383" t="n">
-        <v>132172</v>
+        <v>162948</v>
       </c>
       <c r="C383" t="s">
         <v>3119</v>
@@ -37402,7 +37402,7 @@
         <v>53987</v>
       </c>
       <c r="B384" t="n">
-        <v>132173</v>
+        <v>162949</v>
       </c>
       <c r="C384" t="s">
         <v>3126</v>
@@ -37473,7 +37473,7 @@
         <v>53987</v>
       </c>
       <c r="B385" t="n">
-        <v>132174</v>
+        <v>162950</v>
       </c>
       <c r="C385" t="s">
         <v>3134</v>
@@ -37542,7 +37542,7 @@
         <v>53987</v>
       </c>
       <c r="B386" t="n">
-        <v>132175</v>
+        <v>162951</v>
       </c>
       <c r="C386" t="s">
         <v>3141</v>
@@ -37611,7 +37611,7 @@
         <v>53987</v>
       </c>
       <c r="B387" t="n">
-        <v>132176</v>
+        <v>162952</v>
       </c>
       <c r="C387" t="s">
         <v>3148</v>
@@ -37680,7 +37680,7 @@
         <v>53987</v>
       </c>
       <c r="B388" t="n">
-        <v>132177</v>
+        <v>162953</v>
       </c>
       <c r="C388" t="s">
         <v>3156</v>
@@ -37751,7 +37751,7 @@
         <v>53987</v>
       </c>
       <c r="B389" t="n">
-        <v>132178</v>
+        <v>162954</v>
       </c>
       <c r="C389" t="s">
         <v>3164</v>
@@ -37822,7 +37822,7 @@
         <v>53987</v>
       </c>
       <c r="B390" t="n">
-        <v>132179</v>
+        <v>162955</v>
       </c>
       <c r="C390" t="s">
         <v>3171</v>
@@ -37893,7 +37893,7 @@
         <v>53987</v>
       </c>
       <c r="B391" t="n">
-        <v>132180</v>
+        <v>162956</v>
       </c>
       <c r="C391" t="s">
         <v>3179</v>
@@ -37950,7 +37950,7 @@
         <v>53987</v>
       </c>
       <c r="B392" t="n">
-        <v>132181</v>
+        <v>162957</v>
       </c>
       <c r="C392" t="s">
         <v>3186</v>
@@ -38019,7 +38019,7 @@
         <v>53987</v>
       </c>
       <c r="B393" t="n">
-        <v>132182</v>
+        <v>162958</v>
       </c>
       <c r="C393" t="s">
         <v>3191</v>
@@ -38090,7 +38090,7 @@
         <v>53987</v>
       </c>
       <c r="B394" t="n">
-        <v>132183</v>
+        <v>162959</v>
       </c>
       <c r="C394" t="s">
         <v>3198</v>
